--- a/CS 419/Plan To Grad/Plan to Graduation Spreadsheet.xlsx
+++ b/CS 419/Plan To Grad/Plan to Graduation Spreadsheet.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
   <si>
     <t xml:space="preserve">My Plan to Graduation</t>
   </si>
@@ -86,67 +86,43 @@
     <t xml:space="preserve">Number of upper-division credits I have on this plan</t>
   </si>
   <si>
-    <t xml:space="preserve">Semester:   Spring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year:   2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">Semester:  Fall </t>
   </si>
   <si>
     <t xml:space="preserve">Year:  2020</t>
   </si>
   <si>
+    <t xml:space="preserve">Semester:   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year:   </t>
+  </si>
+  <si>
     <t xml:space="preserve">Courses</t>
   </si>
   <si>
     <t xml:space="preserve">Credits</t>
   </si>
   <si>
-    <t xml:space="preserve">CS 419 Computing Ethics</t>
-  </si>
-  <si>
     <t xml:space="preserve">CS 480 Linux Systems Administration</t>
   </si>
   <si>
-    <t xml:space="preserve">CS 479 Internet Programming</t>
-  </si>
-  <si>
     <t xml:space="preserve">CS 484 Computer Networks</t>
   </si>
   <si>
-    <t xml:space="preserve">CS 482 Database Mgt</t>
-  </si>
-  <si>
     <t xml:space="preserve">CS 488 Intro to Data Mining</t>
   </si>
   <si>
-    <t xml:space="preserve">GEOG 326</t>
-  </si>
-  <si>
     <t xml:space="preserve">CS 448 Senior Project</t>
   </si>
   <si>
-    <t xml:space="preserve">CS 475 Artificial Intelligence 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">CS 476 Computer Graphics I</t>
   </si>
   <si>
-    <t xml:space="preserve">ANTH 305V First Peoples</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total Credits</t>
   </si>
   <si>
     <t xml:space="preserve">Upper Division Credits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semester:   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year:   </t>
   </si>
   <si>
     <t xml:space="preserve">Semester:    </t>
@@ -255,7 +231,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -284,13 +260,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -317,7 +286,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -368,10 +337,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -465,15 +430,15 @@
   </sheetPr>
   <dimension ref="A1:AMI45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="40.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.71"/>
   </cols>
@@ -553,7 +518,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="8" t="n">
         <f aca="false">SUM(B20,E20,B31,E31,B42,E42)</f>
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F8" s="9"/>
     </row>
@@ -565,7 +530,7 @@
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="8" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F9" s="9"/>
     </row>
@@ -578,7 +543,7 @@
       <c r="D10" s="7"/>
       <c r="E10" s="8" t="n">
         <f aca="false">SUM(B21,E21,B32,E32)</f>
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F10" s="9"/>
     </row>
@@ -808,298 +773,269 @@
       <c r="B13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="14" t="s">
+      <c r="B14" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="14" t="n">
+      <c r="B15" s="13" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="14" t="n">
+      <c r="B16" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="14" t="n">
-        <v>3</v>
-      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="13" t="n">
+        <v>15</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="14" t="n">
-        <f aca="false">SUM(B14:B19)</f>
-        <v>16</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="14" t="n">
+      <c r="B21" s="13" t="n">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="14" t="n">
-        <v>16</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="14" t="n">
-        <v>15</v>
-      </c>
+      <c r="D21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="25.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="D31" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="14"/>
+      <c r="A31" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="D31" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="D32" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="14"/>
+      <c r="A32" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="D32" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
     </row>
     <row r="41" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="D42" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E42" s="14"/>
+      <c r="A42" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="D42" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="13"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="D43" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E43" s="14"/>
+      <c r="A43" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="D43" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="13"/>
     </row>
     <row r="45" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
+      <c r="A45" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1131,7 +1067,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1154,7 +1090,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
